--- a/doc/cambridge-workshop/figs/dcf.xlsx
+++ b/doc/cambridge-workshop/figs/dcf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgeddes/Projects/nocell-demo/doc/cambridge-workshop/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4225B-ED3C-AA45-BFEC-818E84667D47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A55B08E-1CB3-5A44-B923-484C3C8C6466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{64ED76B6-FCB8-7C4D-9BC4-6439DBA4A087}"/>
+    <workbookView xWindow="600" yWindow="760" windowWidth="27640" windowHeight="16540" xr2:uid="{64ED76B6-FCB8-7C4D-9BC4-6439DBA4A087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5768B0E6-9D45-8D45-93A0-C1774C1A9100}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,6 +760,6 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>